--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>380703.1832719573</v>
+        <v>394429.5414093755</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>64504.44331886784</v>
       </c>
       <c r="E4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="F4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="G4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="H4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="I4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="J4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="K4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="L4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="M4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="N4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="O4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="P4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14750.73248915089</v>
+        <v>14750.73248915085</v>
       </c>
       <c r="C6" t="n">
-        <v>14750.73248915086</v>
+        <v>14750.73248915085</v>
       </c>
       <c r="D6" t="n">
-        <v>14750.73248915086</v>
+        <v>14750.73248915087</v>
       </c>
       <c r="E6" t="n">
-        <v>-54900.70054981143</v>
+        <v>-54900.70054981148</v>
       </c>
       <c r="F6" t="n">
-        <v>78199.29945018857</v>
+        <v>78199.29945018858</v>
       </c>
       <c r="G6" t="n">
-        <v>78199.29945018857</v>
+        <v>78199.29945018858</v>
       </c>
       <c r="H6" t="n">
-        <v>78199.29945018857</v>
+        <v>78199.29945018858</v>
       </c>
       <c r="I6" t="n">
-        <v>78199.29945018857</v>
+        <v>78199.29945018858</v>
       </c>
       <c r="J6" t="n">
-        <v>78199.29945018857</v>
+        <v>78199.29945018858</v>
       </c>
       <c r="K6" t="n">
-        <v>78199.29945018857</v>
+        <v>78199.29945018858</v>
       </c>
       <c r="L6" t="n">
-        <v>78199.29945018857</v>
+        <v>78199.29945018858</v>
       </c>
       <c r="M6" t="n">
-        <v>78199.29945018857</v>
+        <v>78199.29945018858</v>
       </c>
       <c r="N6" t="n">
-        <v>78199.29945018857</v>
+        <v>78199.29945018858</v>
       </c>
       <c r="O6" t="n">
-        <v>78199.29945018857</v>
+        <v>78199.29945018858</v>
       </c>
       <c r="P6" t="n">
-        <v>78199.29945018857</v>
+        <v>78199.29945018858</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>394429.5414093755</v>
+        <v>269319.6426118989</v>
       </c>
     </row>
     <row r="7">
@@ -26322,7 +26322,7 @@
         <v>112882.7758080187</v>
       </c>
       <c r="E2" t="n">
-        <v>120036.5755573567</v>
+        <v>120036.5755573568</v>
       </c>
       <c r="F2" t="n">
         <v>120036.5755573567</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14750.73248915085</v>
+        <v>-399.9414808839101</v>
       </c>
       <c r="C6" t="n">
-        <v>14750.73248915085</v>
+        <v>-399.9414808839101</v>
       </c>
       <c r="D6" t="n">
-        <v>14750.73248915087</v>
+        <v>-399.9414808838956</v>
       </c>
       <c r="E6" t="n">
-        <v>-54900.70054981148</v>
+        <v>-69710.71738892538</v>
       </c>
       <c r="F6" t="n">
-        <v>78199.29945018858</v>
+        <v>63389.28261107468</v>
       </c>
       <c r="G6" t="n">
-        <v>78199.29945018858</v>
+        <v>63389.28261107468</v>
       </c>
       <c r="H6" t="n">
-        <v>78199.29945018858</v>
+        <v>63389.28261107468</v>
       </c>
       <c r="I6" t="n">
-        <v>78199.29945018858</v>
+        <v>63389.28261107468</v>
       </c>
       <c r="J6" t="n">
-        <v>78199.29945018858</v>
+        <v>63389.28261107468</v>
       </c>
       <c r="K6" t="n">
-        <v>78199.29945018858</v>
+        <v>63389.28261107468</v>
       </c>
       <c r="L6" t="n">
-        <v>78199.29945018858</v>
+        <v>63389.28261107468</v>
       </c>
       <c r="M6" t="n">
-        <v>78199.29945018858</v>
+        <v>63389.28261107468</v>
       </c>
       <c r="N6" t="n">
-        <v>78199.29945018858</v>
+        <v>63389.28261107468</v>
       </c>
       <c r="O6" t="n">
-        <v>78199.29945018858</v>
+        <v>63389.28261107468</v>
       </c>
       <c r="P6" t="n">
-        <v>78199.29945018858</v>
+        <v>63389.28261107468</v>
       </c>
     </row>
   </sheetData>
